--- a/Fases_de_desarrollo/02-Elaboracion/02- Analisis y Diseño/Prototipo Funcional Testify v1.xlsx
+++ b/Fases_de_desarrollo/02-Elaboracion/02- Analisis y Diseño/Prototipo Funcional Testify v1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduar\Documents\GitHub\Testify\Fases_de_desarrollo\02-Elaboracion\02- Analisis y Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910" firstSheet="22" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="152">
   <si>
     <t>Usuarios</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Es Administrador?</t>
+  </si>
+  <si>
+    <t>Adjuntar</t>
   </si>
 </sst>
 </file>
@@ -979,7 +982,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,6 +1165,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1237,6 +1255,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1259,9 +1280,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1300,19 +1318,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1836,7 +1857,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1902,6 +1925,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2153,7 +2177,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2219,6 +2245,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4478,12 +4505,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4524,8 +4551,8 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="41"/>
       <c r="S4" s="5"/>
@@ -4581,11 +4608,11 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
       <c r="I7" s="51"/>
@@ -4607,17 +4634,17 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="11"/>
@@ -4719,19 +4746,19 @@
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="41"/>
@@ -4765,11 +4792,11 @@
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -4901,11 +4928,11 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -5137,10 +5164,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5183,18 +5210,18 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -5225,13 +5252,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -5257,11 +5284,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="41"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -5299,15 +5326,15 @@
       <c r="E9" s="79"/>
       <c r="F9" s="67"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
       <c r="O9" s="41"/>
       <c r="P9" s="80"/>
       <c r="Q9" s="4"/>
@@ -5389,18 +5416,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="79"/>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="82"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="4"/>
@@ -5457,20 +5484,20 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="131"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="132" t="s">
+      <c r="L16" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="134"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="140"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="4"/>
@@ -5689,15 +5716,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="H9:N9"/>
     <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J4" location="'Seleccion Proyecto'!A1" display="Cambiar Proyectos"/>
@@ -5742,10 +5769,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5788,18 +5815,18 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -5830,13 +5857,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -5862,11 +5889,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="41"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -5904,15 +5931,15 @@
       <c r="E9" s="79"/>
       <c r="F9" s="67"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
       <c r="O9" s="41"/>
       <c r="P9" s="80"/>
       <c r="Q9" s="4"/>
@@ -6016,18 +6043,18 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="79"/>
-      <c r="F14" s="118" t="s">
+      <c r="F14" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
       <c r="P14" s="82"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="4"/>
@@ -6062,20 +6089,20 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="131"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="132" t="s">
+      <c r="L16" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="134"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="140"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="4"/>
@@ -6294,15 +6321,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="H9:N9"/>
     <mergeCell ref="F14:O14"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J4" location="'Seleccion Proyecto'!A1" display="Cambiar Proyectos"/>
@@ -6345,12 +6372,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6390,11 +6417,11 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
@@ -6426,13 +6453,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -6459,10 +6486,10 @@
       <c r="I7" s="74"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="M7" s="125"/>
+      <c r="M7" s="130"/>
       <c r="N7" s="95" t="s">
         <v>103</v>
       </c>
@@ -6497,19 +6524,19 @@
         <v>84</v>
       </c>
       <c r="E9" s="47"/>
-      <c r="F9" s="136" t="s">
+      <c r="F9" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="4"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -6541,13 +6568,13 @@
         <v>27</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="136" t="s">
+      <c r="F11" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="152"/>
+      <c r="J11" s="106"/>
       <c r="K11" s="41"/>
       <c r="L11" s="97" t="s">
         <v>88</v>
@@ -6587,13 +6614,13 @@
         <v>27</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="136" t="s">
+      <c r="F13" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="152"/>
+      <c r="J13" s="106"/>
       <c r="K13" s="41"/>
       <c r="L13" s="97" t="s">
         <v>88</v>
@@ -6635,13 +6662,13 @@
         <v>27</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="136" t="s">
+      <c r="F15" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="152"/>
+      <c r="J15" s="106"/>
       <c r="K15" s="41"/>
       <c r="L15" s="97" t="s">
         <v>88</v>
@@ -6754,10 +6781,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6800,18 +6827,18 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -6842,13 +6869,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -6874,11 +6901,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="41"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -6916,15 +6943,15 @@
       <c r="E9" s="79"/>
       <c r="F9" s="67"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
       <c r="O9" s="41"/>
       <c r="P9" s="80"/>
       <c r="Q9" s="4"/>
@@ -7006,18 +7033,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="79"/>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="82"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="4"/>
@@ -7074,20 +7101,20 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="135" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="131"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="132" t="s">
+      <c r="L16" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="134"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="140"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="4"/>
@@ -7306,15 +7333,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="H9:N9"/>
     <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J4" location="'Seleccion Proyecto'!A1" display="Cambiar Proyectos"/>
@@ -7357,12 +7384,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7402,11 +7429,11 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
@@ -7438,13 +7465,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -7471,10 +7498,10 @@
       <c r="I7" s="74"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="125"/>
+      <c r="M7" s="130"/>
       <c r="N7" s="95" t="s">
         <v>103</v>
       </c>
@@ -7509,19 +7536,19 @@
         <v>131</v>
       </c>
       <c r="E9" s="41"/>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="4"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -7553,11 +7580,11 @@
         <v>127</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="107" t="s">
+      <c r="F11" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="4"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
@@ -7599,11 +7626,11 @@
         <v>127</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="107" t="s">
+      <c r="F13" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
       <c r="I13" s="4"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -7647,11 +7674,11 @@
         <v>127</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="107" t="s">
+      <c r="F15" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
       <c r="I15" s="4"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
@@ -7766,10 +7793,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7812,18 +7839,18 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -7854,13 +7881,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -7886,11 +7913,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="41"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -7928,15 +7955,15 @@
       <c r="E9" s="79"/>
       <c r="F9" s="67"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
       <c r="O9" s="41"/>
       <c r="P9" s="80"/>
       <c r="Q9" s="4"/>
@@ -8018,18 +8045,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="79"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="139"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="144"/>
       <c r="P13" s="80"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -8110,18 +8137,18 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
       <c r="P17" s="82"/>
       <c r="Q17" s="41"/>
       <c r="R17" s="4"/>
@@ -8156,20 +8183,20 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="79"/>
-      <c r="F19" s="140" t="s">
+      <c r="F19" s="145" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="143" t="s">
+      <c r="L19" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="145"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="150"/>
       <c r="P19" s="82"/>
       <c r="Q19" s="41"/>
       <c r="R19" s="4"/>
@@ -8388,16 +8415,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="H9:N9"/>
     <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J4" location="'Seleccion Proyecto'!A1" display="Cambiar Proyectos"/>
@@ -8440,10 +8467,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8486,18 +8513,18 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -8528,13 +8555,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -8560,11 +8587,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="41"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -8602,15 +8629,15 @@
       <c r="E9" s="79"/>
       <c r="F9" s="67"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
       <c r="O9" s="41"/>
       <c r="P9" s="80"/>
       <c r="Q9" s="4"/>
@@ -8692,18 +8719,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="79"/>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="82"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="4"/>
@@ -8784,18 +8811,18 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="146">
+      <c r="F17" s="151">
         <v>90</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="128"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="134"/>
       <c r="P17" s="83"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="41"/>
@@ -8876,18 +8903,18 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="79"/>
-      <c r="F21" s="146" t="s">
+      <c r="F21" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="128"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="134"/>
       <c r="P21" s="81"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="4"/>
@@ -8922,20 +8949,20 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="79"/>
-      <c r="F23" s="129" t="s">
+      <c r="F23" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="131"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
       <c r="K23" s="17"/>
-      <c r="L23" s="132" t="s">
+      <c r="L23" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="134"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="140"/>
       <c r="P23" s="82"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="4"/>
@@ -9207,12 +9234,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:26" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9255,18 +9282,18 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -9297,13 +9324,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -9333,10 +9360,10 @@
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
       <c r="M7" s="74"/>
-      <c r="O7" s="124" t="s">
+      <c r="O7" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="P7" s="125"/>
+      <c r="P7" s="130"/>
       <c r="Q7" s="95" t="s">
         <v>103</v>
       </c>
@@ -9374,19 +9401,19 @@
         <v>30</v>
       </c>
       <c r="E9" s="41"/>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="41"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -9424,11 +9451,11 @@
         <v>32</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="107">
+      <c r="F11" s="112">
         <v>5</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="4"/>
       <c r="J11" s="98" t="s">
         <v>112</v>
@@ -9617,7 +9644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -9642,10 +9669,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9688,18 +9715,18 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -9730,13 +9757,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -9762,11 +9789,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="41"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -9804,15 +9831,15 @@
       <c r="E9" s="79"/>
       <c r="F9" s="67"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
       <c r="O9" s="41"/>
       <c r="P9" s="80"/>
       <c r="Q9" s="4"/>
@@ -9894,18 +9921,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="79"/>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="82"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="4"/>
@@ -9962,20 +9989,20 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="131"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="132" t="s">
+      <c r="L16" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="134"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="140"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="4"/>
@@ -10194,15 +10221,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="H9:N9"/>
     <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J4" location="'Seleccion Proyecto'!A1" display="Cambiar Proyectos"/>
@@ -10245,12 +10272,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:24" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10293,8 +10320,8 @@
       <c r="K4" s="4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="1"/>
       <c r="S4" s="6"/>
@@ -10377,21 +10404,21 @@
       <c r="C8" s="29"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="31"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="121" t="s">
+      <c r="N8" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="120"/>
-      <c r="P8" s="122"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="127"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="4"/>
       <c r="S8" s="11"/>
@@ -10728,11 +10755,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="107" t="s">
+      <c r="N17" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="11"/>
@@ -11212,12 +11239,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11256,8 +11283,8 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="41"/>
       <c r="S4" s="5"/>
@@ -11313,9 +11340,9 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -11347,9 +11374,9 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="11"/>
@@ -11425,15 +11452,15 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -11543,19 +11570,19 @@
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="11"/>
@@ -11859,12 +11886,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:26" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11905,14 +11932,14 @@
       <c r="G4" s="4"/>
       <c r="H4" s="41"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -11943,13 +11970,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -11979,10 +12006,10 @@
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
       <c r="M7" s="74"/>
-      <c r="O7" s="124" t="s">
+      <c r="O7" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="P7" s="125"/>
+      <c r="P7" s="130"/>
       <c r="Q7" s="100" t="s">
         <v>103</v>
       </c>
@@ -12016,23 +12043,23 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
         <v>54</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="41"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -12066,11 +12093,11 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17" t="s">
         <v>114</v>
@@ -12120,11 +12147,11 @@
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
         <v>114</v>
@@ -12244,15 +12271,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="J9:N9"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J11" location="'ver Detalle Casos de prueba'!A1" display="Ver Detalle"/>
@@ -12296,10 +12323,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12340,14 +12367,14 @@
       <c r="G4" s="4"/>
       <c r="H4" s="41"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -12378,13 +12405,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -12410,11 +12437,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="41"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -12498,15 +12525,15 @@
       <c r="E11" s="79"/>
       <c r="F11" s="67"/>
       <c r="G11" s="41"/>
-      <c r="H11" s="135" t="s">
+      <c r="H11" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
       <c r="O11" s="41"/>
       <c r="P11" s="80"/>
       <c r="Q11" s="4"/>
@@ -12588,18 +12615,18 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="79"/>
-      <c r="F15" s="147" t="s">
+      <c r="F15" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="147"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="152"/>
+      <c r="O15" s="152"/>
       <c r="P15" s="82"/>
       <c r="Q15" s="41"/>
       <c r="R15" s="4"/>
@@ -12658,18 +12685,18 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="79"/>
-      <c r="F18" s="137" t="s">
+      <c r="F18" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="139"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="144"/>
       <c r="P18" s="82"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="4"/>
@@ -12750,18 +12777,18 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="79"/>
-      <c r="F22" s="137" t="s">
+      <c r="F22" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="139"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="144"/>
       <c r="P22" s="83"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="41"/>
@@ -12842,16 +12869,16 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="79"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="139"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="144"/>
       <c r="P26" s="83"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="41"/>
@@ -12932,16 +12959,16 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="79"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="139"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="143"/>
+      <c r="O30" s="144"/>
       <c r="P30" s="83"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="41"/>
@@ -13022,16 +13049,16 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="79"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="139"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="144"/>
       <c r="P34" s="83"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="34"/>
@@ -13102,16 +13129,16 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="79"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138"/>
-      <c r="N38" s="138"/>
-      <c r="O38" s="139"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="144"/>
       <c r="P38" s="81"/>
       <c r="Q38" s="17"/>
       <c r="R38" s="4"/>
@@ -13146,11 +13173,11 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="79"/>
-      <c r="F40" s="136" t="s">
+      <c r="F40" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
@@ -13192,16 +13219,16 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="79"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="138"/>
-      <c r="O42" s="139"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="143"/>
+      <c r="L42" s="143"/>
+      <c r="M42" s="143"/>
+      <c r="N42" s="143"/>
+      <c r="O42" s="144"/>
       <c r="P42" s="81"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="4"/>
@@ -13253,16 +13280,16 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="79"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="138"/>
-      <c r="L46" s="138"/>
-      <c r="M46" s="138"/>
-      <c r="N46" s="138"/>
-      <c r="O46" s="139"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
+      <c r="K46" s="143"/>
+      <c r="L46" s="143"/>
+      <c r="M46" s="143"/>
+      <c r="N46" s="143"/>
+      <c r="O46" s="144"/>
       <c r="P46" s="81"/>
       <c r="Q46" s="17"/>
       <c r="R46" s="4"/>
@@ -13314,16 +13341,16 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="79"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="138"/>
-      <c r="L50" s="138"/>
-      <c r="M50" s="138"/>
-      <c r="N50" s="138"/>
-      <c r="O50" s="139"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="143"/>
+      <c r="K50" s="143"/>
+      <c r="L50" s="143"/>
+      <c r="M50" s="143"/>
+      <c r="N50" s="143"/>
+      <c r="O50" s="144"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="17"/>
       <c r="R50" s="4"/>
@@ -13520,6 +13547,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F38:O38"/>
+    <mergeCell ref="F42:O42"/>
+    <mergeCell ref="F50:O50"/>
+    <mergeCell ref="F46:O46"/>
     <mergeCell ref="F34:O34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="J4:L4"/>
@@ -13532,11 +13564,6 @@
     <mergeCell ref="F22:O22"/>
     <mergeCell ref="F26:O26"/>
     <mergeCell ref="F30:O30"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F38:O38"/>
-    <mergeCell ref="F42:O42"/>
-    <mergeCell ref="F50:O50"/>
-    <mergeCell ref="F46:O46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" location="Inicio!A1" display="Salir"/>
@@ -13576,10 +13603,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13620,14 +13647,14 @@
       <c r="G4" s="4"/>
       <c r="H4" s="41"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -13658,13 +13685,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -13690,11 +13717,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="41"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -13732,15 +13759,15 @@
       <c r="E9" s="79"/>
       <c r="F9" s="67"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
       <c r="O9" s="41"/>
       <c r="P9" s="80"/>
       <c r="Q9" s="4"/>
@@ -13822,18 +13849,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="79"/>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="82"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="4"/>
@@ -13892,18 +13919,18 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="146" t="s">
+      <c r="F16" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="128"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="134"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="4"/>
@@ -13984,18 +14011,18 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="79"/>
-      <c r="F20" s="146" t="s">
+      <c r="F20" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="128"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="134"/>
       <c r="P20" s="83"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="41"/>
@@ -14076,16 +14103,16 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="79"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="128"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="134"/>
       <c r="P24" s="83"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="41"/>
@@ -14166,16 +14193,16 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="79"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="128"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="134"/>
       <c r="P28" s="83"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="41"/>
@@ -14256,16 +14283,16 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="79"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="128"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="133"/>
+      <c r="O32" s="134"/>
       <c r="P32" s="83"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="34"/>
@@ -14382,11 +14409,11 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="79"/>
-      <c r="F38" s="136" t="s">
+      <c r="F38" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
@@ -14535,20 +14562,20 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="79"/>
-      <c r="F46" s="129" t="s">
+      <c r="F46" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="131"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137"/>
       <c r="K46" s="17"/>
-      <c r="L46" s="132" t="s">
+      <c r="L46" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="M46" s="133"/>
-      <c r="N46" s="133"/>
-      <c r="O46" s="134"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="140"/>
       <c r="P46" s="82"/>
       <c r="Q46" s="41"/>
       <c r="R46" s="4"/>
@@ -14767,12 +14794,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="J7:N7"/>
     <mergeCell ref="F13:O13"/>
     <mergeCell ref="F20:O20"/>
     <mergeCell ref="F32:O32"/>
@@ -14782,6 +14803,12 @@
     <mergeCell ref="F24:O24"/>
     <mergeCell ref="F28:O28"/>
     <mergeCell ref="F38:H38"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="J7:N7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" location="Inicio!A1" display="Salir"/>
@@ -14798,8 +14825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14826,12 +14853,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14927,21 +14954,21 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="128"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="134"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="11"/>
@@ -14986,11 +15013,11 @@
         <v>50</v>
       </c>
       <c r="M9" s="40"/>
-      <c r="N9" s="127" t="s">
+      <c r="N9" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="127"/>
-      <c r="P9" s="128"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="134"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="11"/>
@@ -15042,11 +15069,11 @@
         <v>114</v>
       </c>
       <c r="M11" s="40"/>
-      <c r="N11" s="149" t="s">
+      <c r="N11" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="149"/>
-      <c r="P11" s="149"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
       <c r="Q11" s="32" t="s">
         <v>37</v>
       </c>
@@ -15078,11 +15105,11 @@
         <v>114</v>
       </c>
       <c r="M12" s="40"/>
-      <c r="N12" s="149" t="s">
+      <c r="N12" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="149"/>
-      <c r="P12" s="149"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="155"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="4"/>
       <c r="S12" s="11"/>
@@ -15112,11 +15139,11 @@
         <v>114</v>
       </c>
       <c r="M13" s="40"/>
-      <c r="N13" s="149" t="s">
+      <c r="N13" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="155"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="4"/>
       <c r="S13" s="11"/>
@@ -15146,11 +15173,11 @@
         <v>114</v>
       </c>
       <c r="M14" s="40"/>
-      <c r="N14" s="149" t="s">
+      <c r="N14" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="4"/>
       <c r="S14" s="11"/>
@@ -15180,11 +15207,11 @@
         <v>114</v>
       </c>
       <c r="M15" s="40"/>
-      <c r="N15" s="149" t="s">
+      <c r="N15" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="155"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="4"/>
       <c r="S15" s="11"/>
@@ -15214,11 +15241,11 @@
         <v>114</v>
       </c>
       <c r="M16" s="40"/>
-      <c r="N16" s="149" t="s">
+      <c r="N16" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="149"/>
-      <c r="P16" s="149"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="155"/>
       <c r="Q16" s="32" t="s">
         <v>5</v>
       </c>
@@ -15240,9 +15267,9 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="150"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="11"/>
@@ -15252,21 +15279,21 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="146" t="s">
+      <c r="D18" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="128"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="134"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="11"/>
@@ -15309,11 +15336,11 @@
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="127" t="s">
+      <c r="N20" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="127"/>
-      <c r="P20" s="128"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="134"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="11"/>
@@ -15363,11 +15390,11 @@
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="148" t="s">
+      <c r="N22" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
       <c r="Q22" s="32" t="s">
         <v>37</v>
       </c>
@@ -15399,11 +15426,11 @@
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
       <c r="M23" s="40"/>
-      <c r="N23" s="148" t="s">
+      <c r="N23" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="4"/>
       <c r="S23" s="11"/>
@@ -15433,11 +15460,11 @@
       <c r="K24" s="39"/>
       <c r="L24" s="39"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="148" t="s">
+      <c r="N24" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="O24" s="148"/>
-      <c r="P24" s="148"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
       <c r="Q24" s="33"/>
       <c r="R24" s="4"/>
       <c r="S24" s="11"/>
@@ -15467,11 +15494,11 @@
       <c r="K25" s="39"/>
       <c r="L25" s="39"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="148" t="s">
+      <c r="N25" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
+      <c r="O25" s="154"/>
+      <c r="P25" s="154"/>
       <c r="Q25" s="33"/>
       <c r="R25" s="4"/>
       <c r="S25" s="11"/>
@@ -15501,11 +15528,11 @@
       <c r="K26" s="39"/>
       <c r="L26" s="39"/>
       <c r="M26" s="40"/>
-      <c r="N26" s="148" t="s">
+      <c r="N26" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
       <c r="Q26" s="33"/>
       <c r="R26" s="4"/>
       <c r="S26" s="11"/>
@@ -15535,11 +15562,11 @@
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
       <c r="M27" s="40"/>
-      <c r="N27" s="148" t="s">
+      <c r="N27" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
       <c r="Q27" s="32" t="s">
         <v>5</v>
       </c>
@@ -15597,12 +15624,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
@@ -15610,11 +15636,12 @@
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="D18:P18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N11:P11" location="'Actualizar Casos de prueba'!A1" display="Actualizar"/>
@@ -15630,10 +15657,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z62"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15657,10 +15684,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15701,14 +15728,14 @@
       <c r="G4" s="4"/>
       <c r="H4" s="41"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -15739,13 +15766,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -15771,11 +15798,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="41"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -15813,15 +15840,15 @@
       <c r="E9" s="79"/>
       <c r="F9" s="67"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
       <c r="O9" s="41"/>
       <c r="P9" s="80"/>
       <c r="Q9" s="4"/>
@@ -15903,18 +15930,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="79"/>
-      <c r="F13" s="147" t="s">
+      <c r="F13" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="152"/>
       <c r="P13" s="82"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="4"/>
@@ -15973,18 +16000,18 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="137" t="s">
+      <c r="F16" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="139"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="144"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="41"/>
       <c r="R16" s="4"/>
@@ -16065,18 +16092,18 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="79"/>
-      <c r="F20" s="137" t="s">
+      <c r="F20" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="139"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="144"/>
       <c r="P20" s="83"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="41"/>
@@ -16157,16 +16184,16 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="79"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="139"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="144"/>
       <c r="P24" s="83"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="41"/>
@@ -16247,16 +16274,16 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="79"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="139"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="144"/>
       <c r="P28" s="83"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="41"/>
@@ -16337,16 +16364,16 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="79"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="138"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="138"/>
-      <c r="O32" s="139"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="143"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="144"/>
       <c r="P32" s="83"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="34"/>
@@ -16417,16 +16444,16 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="79"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="138"/>
-      <c r="O36" s="139"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="143"/>
+      <c r="N36" s="143"/>
+      <c r="O36" s="144"/>
       <c r="P36" s="81"/>
       <c r="Q36" s="17"/>
       <c r="R36" s="4"/>
@@ -16461,11 +16488,11 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="79"/>
-      <c r="F38" s="136" t="s">
+      <c r="F38" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
@@ -16507,16 +16534,16 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="79"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="138"/>
-      <c r="N40" s="138"/>
-      <c r="O40" s="139"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="143"/>
+      <c r="K40" s="143"/>
+      <c r="L40" s="143"/>
+      <c r="M40" s="143"/>
+      <c r="N40" s="143"/>
+      <c r="O40" s="144"/>
       <c r="P40" s="81"/>
       <c r="Q40" s="17"/>
       <c r="R40" s="4"/>
@@ -16597,16 +16624,16 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="79"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="138"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="138"/>
-      <c r="O44" s="139"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="143"/>
+      <c r="J44" s="143"/>
+      <c r="K44" s="143"/>
+      <c r="L44" s="143"/>
+      <c r="M44" s="143"/>
+      <c r="N44" s="143"/>
+      <c r="O44" s="144"/>
       <c r="P44" s="83"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="34"/>
@@ -16641,11 +16668,11 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="79"/>
-      <c r="F46" s="136" t="s">
+      <c r="F46" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="141"/>
       <c r="I46" s="41"/>
       <c r="J46" s="41"/>
       <c r="K46" s="41"/>
@@ -16721,11 +16748,11 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="79"/>
-      <c r="F50" s="136" t="s">
+      <c r="F50" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
       <c r="I50" s="41"/>
       <c r="J50" s="41"/>
       <c r="K50" s="41"/>
@@ -16789,16 +16816,16 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="79"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
       <c r="P53" s="83"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="34"/>
@@ -16811,95 +16838,93 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="79"/>
-      <c r="F54" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" s="141"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="141"/>
-      <c r="J54" s="142"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="M54" s="144"/>
-      <c r="N54" s="144"/>
-      <c r="O54" s="145"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="103"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="102"/>
+      <c r="N54" s="157" t="s">
+        <v>151</v>
+      </c>
+      <c r="O54" s="158"/>
       <c r="P54" s="83"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="34"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="86"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="83"/>
       <c r="Q55" s="16"/>
-      <c r="R55" s="4"/>
+      <c r="R55" s="34"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="16"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="145" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56" s="146"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="M56" s="149"/>
+      <c r="N56" s="149"/>
+      <c r="O56" s="150"/>
+      <c r="P56" s="83"/>
       <c r="Q56" s="16"/>
-      <c r="R56" s="41"/>
+      <c r="R56" s="34"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="16"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="86"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="4"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
@@ -16915,11 +16940,11 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="70"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="69"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
-      <c r="R58" s="34"/>
+      <c r="R58" s="41"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
       <c r="Y58" s="4"/>
@@ -16940,9 +16965,9 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="4"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
       <c r="R59" s="4"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
@@ -16963,70 +16988,118 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="70"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
       <c r="R60" s="34"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="14"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="11"/>
       <c r="T61" s="11"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" spans="1:26" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="14"/>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="11"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+    </row>
+    <row r="64" spans="1:26" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="J7:N7"/>
+  <mergeCells count="21">
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="N54:O54"/>
     <mergeCell ref="F36:O36"/>
     <mergeCell ref="F40:O40"/>
     <mergeCell ref="F44:O44"/>
@@ -17036,11 +17109,12 @@
     <mergeCell ref="F24:O24"/>
     <mergeCell ref="F28:O28"/>
     <mergeCell ref="F32:O32"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="J7:N7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" location="Inicio!A1" display="Salir"/>
@@ -17082,12 +17156,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17180,19 +17254,19 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="151" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="128"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="134"/>
       <c r="O7" s="3"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -17232,11 +17306,11 @@
         <v>54</v>
       </c>
       <c r="K9" s="39"/>
-      <c r="L9" s="127" t="s">
+      <c r="L9" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="134"/>
       <c r="O9" s="3"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -17565,12 +17639,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:24" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17601,19 +17675,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="4"/>
       <c r="H4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="41"/>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -17644,13 +17718,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -17683,8 +17757,8 @@
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
       <c r="M7" s="74"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
       <c r="Q7" s="74"/>
       <c r="R7" s="74"/>
       <c r="S7" s="11"/>
@@ -17878,22 +17952,22 @@
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="120" t="s">
+      <c r="F15" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="121" t="s">
+      <c r="N15" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="122"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="127"/>
       <c r="R15" s="10"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
@@ -18243,12 +18317,12 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="107" t="s">
+      <c r="N24" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
       <c r="R24" s="4"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
@@ -18740,12 +18814,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18784,8 +18858,8 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="41"/>
       <c r="S4" s="5"/>
@@ -18841,9 +18915,9 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -18875,9 +18949,9 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="11"/>
@@ -18953,15 +19027,15 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -19067,19 +19141,19 @@
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="11"/>
@@ -19177,22 +19251,22 @@
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="113" t="s">
+      <c r="D22" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="115"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="113" t="s">
+      <c r="L22" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="115"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="4"/>
@@ -19390,12 +19464,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19438,8 +19512,8 @@
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="41"/>
       <c r="S4" s="5"/>
@@ -19473,13 +19547,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -19523,19 +19597,19 @@
       <c r="C8" s="4"/>
       <c r="D8" s="55"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="117" t="s">
+      <c r="F8" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="11"/>
@@ -19593,15 +19667,15 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="118" t="s">
+      <c r="H11" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
       <c r="O11" s="99" t="s">
         <v>144</v>
       </c>
@@ -19615,13 +19689,13 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -19725,19 +19799,19 @@
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="11"/>
@@ -19999,13 +20073,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D17:P17"/>
     <mergeCell ref="F8:P8"/>
     <mergeCell ref="H11:N11"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" location="Inicio!A1" display="Salir"/>
@@ -20044,12 +20118,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:24" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20092,18 +20166,18 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="3"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -20134,13 +20208,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -20173,10 +20247,10 @@
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
       <c r="M7" s="74"/>
-      <c r="O7" s="124" t="s">
+      <c r="O7" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="125"/>
+      <c r="P7" s="130"/>
       <c r="Q7" s="74"/>
       <c r="R7" s="74"/>
       <c r="S7" s="11"/>
@@ -20220,13 +20294,13 @@
         <v>54</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="41"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -20379,22 +20453,22 @@
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="120" t="s">
+      <c r="F15" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="121" t="s">
+      <c r="N15" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="122"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="127"/>
       <c r="R15" s="10"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
@@ -20744,12 +20818,12 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="107" t="s">
+      <c r="N24" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
       <c r="R24" s="4"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
@@ -21249,12 +21323,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:26" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21297,18 +21371,18 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -21339,13 +21413,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -21377,10 +21451,10 @@
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
       <c r="M7" s="74"/>
-      <c r="O7" s="126" t="s">
+      <c r="O7" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="P7" s="125"/>
+      <c r="P7" s="130"/>
       <c r="Q7" s="95" t="s">
         <v>103</v>
       </c>
@@ -21418,17 +21492,17 @@
         <v>118</v>
       </c>
       <c r="E9" s="41"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="41"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -21466,9 +21540,9 @@
         <v>119</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="4"/>
       <c r="J11" s="98" t="s">
         <v>145</v>
@@ -21684,10 +21758,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21730,18 +21804,18 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="41"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="11"/>
@@ -21772,13 +21846,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -21804,11 +21878,11 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="41"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -21846,15 +21920,15 @@
       <c r="E9" s="79"/>
       <c r="F9" s="67"/>
       <c r="G9" s="41"/>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
       <c r="O9" s="41"/>
       <c r="P9" s="80"/>
       <c r="Q9" s="4"/>
@@ -21936,18 +22010,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="79"/>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="82"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="4"/>
@@ -22028,18 +22102,18 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="113" t="s">
+      <c r="F17" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="128"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="134"/>
       <c r="P17" s="83"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="41"/>
@@ -22144,20 +22218,20 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="79"/>
-      <c r="F22" s="129" t="s">
+      <c r="F22" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="131"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="137"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="132" t="s">
+      <c r="L22" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="134"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="140"/>
       <c r="P22" s="82"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="4"/>
@@ -22376,16 +22450,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="J4:L4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="H9:N9"/>
     <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F17:O17"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J4" location="'Seleccion Proyecto'!A1" display="Cambiar Proyectos"/>
@@ -22428,12 +22502,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22473,11 +22547,11 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
@@ -22509,13 +22583,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -22542,10 +22616,10 @@
       <c r="I7" s="74"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="125"/>
+      <c r="M7" s="130"/>
       <c r="N7" s="95" t="s">
         <v>103</v>
       </c>
@@ -22580,17 +22654,17 @@
         <v>126</v>
       </c>
       <c r="E9" s="41"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="4"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -22618,13 +22692,13 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="141" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
       <c r="I11" s="4"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
@@ -22662,13 +22736,13 @@
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
       <c r="I13" s="4"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -22708,13 +22782,13 @@
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="136" t="s">
+      <c r="D15" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="4"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
@@ -22826,12 +22900,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22871,11 +22945,11 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="123" t="s">
+      <c r="J4" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="41"/>
       <c r="N4" s="66" t="s">
         <v>3</v>
@@ -22907,13 +22981,13 @@
       <c r="A6" s="10"/>
       <c r="B6" s="63"/>
       <c r="C6" s="64"/>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="65"/>
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
@@ -22940,10 +23014,10 @@
       <c r="I7" s="74"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="125"/>
+      <c r="M7" s="130"/>
       <c r="N7" s="95" t="s">
         <v>103</v>
       </c>
@@ -22980,13 +23054,13 @@
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="107" t="s">
+      <c r="J9" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="4"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>

--- a/Fases_de_desarrollo/02-Elaboracion/02- Analisis y Diseño/Prototipo Funcional Testify v1.xlsx
+++ b/Fases_de_desarrollo/02-Elaboracion/02- Analisis y Diseño/Prototipo Funcional Testify v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910" firstSheet="32" activeTab="35"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910" firstSheet="11" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="9" r:id="rId1"/>
@@ -41,13 +41,12 @@
     <sheet name="Crear Editar Hito (Ges)" sheetId="45" r:id="rId27"/>
     <sheet name="Crear Casos de prueba" sheetId="34" r:id="rId28"/>
     <sheet name="Ver Casos de Prueba" sheetId="17" r:id="rId29"/>
-    <sheet name="Ver Historial Casos de Prueba" sheetId="37" r:id="rId30"/>
-    <sheet name="Detalle Casos de Prueba" sheetId="36" r:id="rId31"/>
-    <sheet name="Dashboard Tester" sheetId="4" r:id="rId32"/>
-    <sheet name="Actualizar Casos de prueba" sheetId="35" r:id="rId33"/>
-    <sheet name="Dashboard Invitado" sheetId="32" r:id="rId34"/>
-    <sheet name="Ver Casos de Prueba (Inv)" sheetId="46" r:id="rId35"/>
-    <sheet name="Detalle Casos de Prueba (Inv)" sheetId="47" r:id="rId36"/>
+    <sheet name="Detalle Casos de Prueba" sheetId="36" r:id="rId30"/>
+    <sheet name="Dashboard Tester" sheetId="4" r:id="rId31"/>
+    <sheet name="Actualizar Casos de prueba" sheetId="35" r:id="rId32"/>
+    <sheet name="Dashboard Invitado" sheetId="32" r:id="rId33"/>
+    <sheet name="Ver Casos de Prueba (Inv)" sheetId="46" r:id="rId34"/>
+    <sheet name="Detalle Casos de Prueba (Inv)" sheetId="47" r:id="rId35"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Crear Roles'!$D$4</definedName>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="168">
   <si>
     <t>Usuarios</t>
   </si>
@@ -520,28 +519,16 @@
     <t>Actualizar caso de prueba</t>
   </si>
   <si>
-    <t>Generar Nueva Version</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
     <t>Actualizacion de Casos de Prueba</t>
   </si>
   <si>
-    <t>Historial</t>
-  </si>
-  <si>
     <t>Este es un Comentario del Caso de Prueba</t>
   </si>
   <si>
     <t>Test Casos de Prueba</t>
-  </si>
-  <si>
-    <t>Ver</t>
-  </si>
-  <si>
-    <t>Finalizado</t>
   </si>
   <si>
     <t>Inicio</t>
@@ -1068,7 +1055,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1347,7 +1334,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1416,91 +1427,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1521,13 +1451,22 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1539,6 +1478,45 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1548,20 +1526,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1767,9 +1748,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1835,7 +1814,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4915,12 +4893,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4961,8 +4939,8 @@
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="40"/>
       <c r="S4" s="5"/>
@@ -5018,11 +4996,11 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
       <c r="I7" s="48"/>
@@ -5044,17 +5022,17 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="10"/>
@@ -5156,19 +5134,19 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="40"/>
@@ -5202,11 +5180,11 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="141" t="s">
+      <c r="D15" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -5338,11 +5316,11 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="209" t="s">
+      <c r="D21" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="210"/>
-      <c r="F21" s="211"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="148"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -5572,12 +5550,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5620,8 +5598,8 @@
       <c r="L4" s="110"/>
       <c r="M4" s="110"/>
       <c r="N4" s="110"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="110"/>
       <c r="S4" s="5"/>
@@ -5655,13 +5633,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="112"/>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
@@ -5705,19 +5683,19 @@
       <c r="C8" s="4"/>
       <c r="D8" s="52"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="155" t="s">
+      <c r="F8" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="10"/>
@@ -5775,15 +5753,15 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="156" t="s">
+      <c r="H11" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
       <c r="O11" s="94" t="s">
         <v>123</v>
       </c>
@@ -5797,13 +5775,13 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -5907,19 +5885,19 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="10"/>
@@ -6226,12 +6204,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:44" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6263,7 +6241,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="96" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="108"/>
       <c r="F4" s="114" t="s">
@@ -6281,10 +6259,10 @@
         <v>2</v>
       </c>
       <c r="M4" s="107"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="152"/>
+      <c r="O4" s="160"/>
       <c r="P4" s="63" t="s">
         <v>3</v>
       </c>
@@ -6319,13 +6297,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -6358,10 +6336,10 @@
       <c r="K7" s="71"/>
       <c r="L7" s="71"/>
       <c r="M7" s="71"/>
-      <c r="O7" s="161" t="s">
+      <c r="O7" s="169" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="162"/>
+      <c r="P7" s="170"/>
       <c r="Q7" s="71"/>
       <c r="R7" s="71"/>
       <c r="S7" s="10"/>
@@ -6405,13 +6383,13 @@
         <v>51</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="145" t="s">
+      <c r="J9" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
       <c r="O9" s="40"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -6563,22 +6541,22 @@
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="158" t="s">
+      <c r="F15" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="30"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="159" t="s">
+      <c r="N15" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="158"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="160"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="168"/>
       <c r="R15" s="9"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -6928,12 +6906,12 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="145" t="s">
+      <c r="N24" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="145"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
       <c r="R24" s="4"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
@@ -7437,12 +7415,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:26" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7474,7 +7452,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="108"/>
       <c r="F4" s="100" t="s">
@@ -7492,10 +7470,10 @@
         <v>2</v>
       </c>
       <c r="M4" s="118"/>
-      <c r="N4" s="163" t="s">
+      <c r="N4" s="172" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="163"/>
+      <c r="O4" s="172"/>
       <c r="Q4" s="102" t="s">
         <v>3</v>
       </c>
@@ -7529,13 +7507,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="101"/>
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
@@ -7566,7 +7544,7 @@
       <c r="L7" s="71"/>
       <c r="M7" s="71"/>
       <c r="O7" s="120" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="90" t="s">
         <v>95</v>
@@ -7575,7 +7553,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="V7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7610,11 +7588,11 @@
       <c r="E9" s="99"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="164" t="s">
+      <c r="H9" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16" t="s">
         <v>84</v>
@@ -7654,15 +7632,15 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="153"/>
       <c r="K11" s="99"/>
       <c r="L11" s="106" t="s">
         <v>82</v>
@@ -7705,16 +7683,16 @@
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="164" t="s">
+      <c r="H13" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
       <c r="K13" s="4"/>
       <c r="L13" s="117" t="s">
         <v>82</v>
@@ -7881,10 +7859,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7916,7 +7894,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="108"/>
       <c r="F4" s="114" t="s">
@@ -7934,10 +7912,10 @@
         <v>2</v>
       </c>
       <c r="M4" s="118"/>
-      <c r="N4" s="163" t="s">
+      <c r="N4" s="172" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="163"/>
+      <c r="O4" s="172"/>
       <c r="Q4" s="102" t="s">
         <v>3</v>
       </c>
@@ -7969,15 +7947,15 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -8003,11 +7981,11 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
       <c r="O7" s="40"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -8043,18 +8021,18 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="76"/>
-      <c r="F9" s="167" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
+      <c r="F9" s="184" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
       <c r="P9" s="77"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -8090,7 +8068,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="76"/>
       <c r="F11" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -8135,18 +8113,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="156" t="s">
+      <c r="F13" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
       <c r="P13" s="79"/>
       <c r="Q13" s="40"/>
       <c r="R13" s="4"/>
@@ -8227,25 +8205,25 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="76"/>
-      <c r="F17" s="170" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="168"/>
-      <c r="M17" s="168"/>
-      <c r="N17" s="168"/>
-      <c r="O17" s="169"/>
+      <c r="F17" s="181" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="183"/>
       <c r="P17" s="79"/>
       <c r="Q17" s="110"/>
       <c r="R17" s="4"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="V17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -8276,20 +8254,20 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="76"/>
-      <c r="F19" s="192" t="s">
+      <c r="F19" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="194"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="175"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="195" t="s">
+      <c r="L19" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="M19" s="196"/>
-      <c r="N19" s="196"/>
-      <c r="O19" s="197"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="178"/>
       <c r="P19" s="79"/>
       <c r="Q19" s="40"/>
       <c r="R19" s="4"/>
@@ -8564,12 +8542,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:26" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8601,7 +8579,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="108"/>
       <c r="F4" s="114" t="s">
@@ -8619,10 +8597,10 @@
         <v>2</v>
       </c>
       <c r="M4" s="118"/>
-      <c r="N4" s="163" t="s">
+      <c r="N4" s="172" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="163"/>
+      <c r="O4" s="172"/>
       <c r="Q4" s="97" t="s">
         <v>3</v>
       </c>
@@ -8656,13 +8634,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -8734,17 +8712,17 @@
         <v>102</v>
       </c>
       <c r="E9" s="40"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="145" t="s">
+      <c r="J9" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
       <c r="O9" s="40"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -8782,9 +8760,9 @@
         <v>103</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
       <c r="I11" s="4"/>
       <c r="J11" s="93" t="s">
         <v>1</v>
@@ -9000,10 +8978,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9035,7 +9013,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="108"/>
       <c r="F4" s="114" t="s">
@@ -9053,10 +9031,10 @@
         <v>2</v>
       </c>
       <c r="M4" s="118"/>
-      <c r="N4" s="163" t="s">
+      <c r="N4" s="172" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="163"/>
+      <c r="O4" s="172"/>
       <c r="Q4" s="97" t="s">
         <v>3</v>
       </c>
@@ -9090,13 +9068,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -9122,11 +9100,11 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
       <c r="O7" s="40"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -9164,15 +9142,15 @@
       <c r="E9" s="76"/>
       <c r="F9" s="64"/>
       <c r="G9" s="40"/>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
       <c r="O9" s="40"/>
       <c r="P9" s="77"/>
       <c r="Q9" s="4"/>
@@ -9209,7 +9187,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="76"/>
       <c r="F11" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -9254,18 +9232,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="156" t="s">
+      <c r="F13" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
       <c r="P13" s="79"/>
       <c r="Q13" s="40"/>
       <c r="R13" s="4"/>
@@ -9301,7 +9279,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="76"/>
       <c r="F15" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -9346,18 +9324,18 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="76"/>
-      <c r="F17" s="150" t="s">
+      <c r="F17" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="168"/>
-      <c r="M17" s="168"/>
-      <c r="N17" s="168"/>
-      <c r="O17" s="169"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="183"/>
       <c r="P17" s="80"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="40"/>
@@ -9462,20 +9440,20 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="76"/>
-      <c r="F22" s="192" t="s">
+      <c r="F22" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="194"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="175"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="195" t="s">
+      <c r="L22" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="196"/>
-      <c r="N22" s="196"/>
-      <c r="O22" s="197"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="178"/>
       <c r="P22" s="79"/>
       <c r="Q22" s="40"/>
       <c r="R22" s="4"/>
@@ -9748,12 +9726,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9782,7 +9760,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="99"/>
       <c r="F4" s="114" t="s">
@@ -9833,13 +9811,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="101"/>
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
@@ -9904,17 +9882,17 @@
         <v>108</v>
       </c>
       <c r="E9" s="99"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="145" t="s">
+      <c r="J9" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
       <c r="O9" s="4"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -9942,13 +9920,13 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
       <c r="I11" s="4"/>
       <c r="J11" s="99"/>
       <c r="K11" s="99"/>
@@ -9986,13 +9964,13 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="164" t="s">
+      <c r="D13" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
       <c r="I13" s="4"/>
       <c r="J13" s="99"/>
       <c r="K13" s="99"/>
@@ -10100,12 +10078,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10134,7 +10112,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="99"/>
       <c r="F4" s="114" t="s">
@@ -10185,13 +10163,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -10258,13 +10236,13 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="145" t="s">
+      <c r="J9" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
       <c r="O9" s="4"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -10487,10 +10465,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10522,7 +10500,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="99"/>
       <c r="F4" s="114" t="s">
@@ -10579,13 +10557,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -10611,11 +10589,11 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
       <c r="O7" s="40"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -10693,7 +10671,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="76"/>
       <c r="D11" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -10801,21 +10779,21 @@
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="76"/>
-      <c r="D16" s="192" t="s">
+      <c r="D16" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="194"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="175"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="195" t="s">
+      <c r="J16" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="196"/>
-      <c r="L16" s="196"/>
-      <c r="M16" s="196"/>
-      <c r="N16" s="197"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="178"/>
       <c r="O16" s="77"/>
       <c r="Q16" s="40"/>
       <c r="R16" s="4"/>
@@ -10960,10 +10938,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10994,7 +10972,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="99"/>
       <c r="F4" s="114" t="s">
@@ -11049,13 +11027,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -11080,11 +11058,11 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
       <c r="O7" s="40"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -11178,7 +11156,7 @@
       <c r="B12" s="9"/>
       <c r="C12" s="76"/>
       <c r="D12" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -11261,21 +11239,21 @@
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="76"/>
-      <c r="D16" s="192" t="s">
+      <c r="D16" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="194"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="175"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="195" t="s">
+      <c r="J16" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="196"/>
-      <c r="L16" s="196"/>
-      <c r="M16" s="196"/>
-      <c r="N16" s="197"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="178"/>
       <c r="O16" s="77"/>
       <c r="Q16" s="40"/>
       <c r="R16" s="10"/>
@@ -11437,12 +11415,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11481,8 +11459,8 @@
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="40"/>
       <c r="S4" s="5"/>
@@ -11538,9 +11516,9 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -11572,9 +11550,9 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="10"/>
@@ -11650,15 +11628,15 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -12067,7 +12045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -12090,12 +12068,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12124,7 +12102,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="110"/>
       <c r="F4" s="114" t="s">
@@ -12175,13 +12153,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -12246,19 +12224,19 @@
         <v>78</v>
       </c>
       <c r="E9" s="44"/>
-      <c r="F9" s="164" t="s">
+      <c r="F9" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="145" t="s">
+      <c r="J9" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
       <c r="O9" s="4"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -12290,11 +12268,11 @@
         <v>27</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="164" t="s">
+      <c r="F11" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
       <c r="I11" s="4"/>
       <c r="J11" s="98"/>
       <c r="K11" s="40"/>
@@ -12336,11 +12314,11 @@
         <v>27</v>
       </c>
       <c r="E13" s="16"/>
-      <c r="F13" s="164" t="s">
+      <c r="F13" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
       <c r="I13" s="4"/>
       <c r="J13" s="98"/>
       <c r="K13" s="40"/>
@@ -12451,10 +12429,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12485,7 +12463,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="110"/>
       <c r="F4" s="114" t="s">
@@ -12540,13 +12518,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="101"/>
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
@@ -12571,11 +12549,11 @@
       <c r="G7" s="99"/>
       <c r="H7" s="99"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
       <c r="O7" s="99"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -12649,7 +12627,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="76"/>
       <c r="D11" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -12732,21 +12710,21 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="76"/>
-      <c r="D15" s="192" t="s">
+      <c r="D15" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="194"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="175"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="195" t="s">
+      <c r="J15" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="197"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="178"/>
       <c r="O15" s="77"/>
       <c r="Q15" s="99"/>
       <c r="R15" s="10"/>
@@ -12911,12 +12889,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12945,7 +12923,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="110"/>
       <c r="F4" s="114" t="s">
@@ -12996,13 +12974,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -13067,19 +13045,19 @@
         <v>113</v>
       </c>
       <c r="E9" s="40"/>
-      <c r="F9" s="145" t="s">
+      <c r="F9" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="145" t="s">
+      <c r="J9" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
       <c r="O9" s="4"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -13111,11 +13089,11 @@
         <v>109</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="145" t="s">
+      <c r="F11" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
       <c r="I11" s="4"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
@@ -13157,11 +13135,11 @@
         <v>109</v>
       </c>
       <c r="E13" s="16"/>
-      <c r="F13" s="145" t="s">
+      <c r="F13" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
       <c r="I13" s="4"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -13205,11 +13183,11 @@
         <v>109</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="145" t="s">
+      <c r="F15" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
       <c r="I15" s="4"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -13324,10 +13302,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13358,7 +13336,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="110"/>
       <c r="F4" s="114" t="s">
@@ -13413,13 +13391,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -13444,11 +13422,11 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
       <c r="O7" s="40"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -13605,7 +13583,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="76"/>
       <c r="D15" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -13688,21 +13666,21 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="198" t="s">
+      <c r="D19" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="200"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="190"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="201" t="s">
+      <c r="J19" s="185" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="202"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="203"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="187"/>
       <c r="O19" s="77"/>
       <c r="Q19" s="40"/>
       <c r="R19" s="10"/>
@@ -13934,7 +13912,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13959,10 +13937,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13994,7 +13972,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="110"/>
       <c r="F4" s="114" t="s">
@@ -14051,13 +14029,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -14083,11 +14061,11 @@
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
       <c r="O7" s="40"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -14169,7 +14147,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="76"/>
       <c r="F11" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -14214,18 +14192,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="156" t="s">
+      <c r="F13" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
       <c r="P13" s="79"/>
       <c r="Q13" s="40"/>
       <c r="R13" s="4"/>
@@ -14306,18 +14284,18 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="76"/>
-      <c r="F17" s="170">
+      <c r="F17" s="181">
         <v>90</v>
       </c>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="168"/>
-      <c r="M17" s="168"/>
-      <c r="N17" s="168"/>
-      <c r="O17" s="169"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="183"/>
       <c r="P17" s="80"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="40"/>
@@ -14398,18 +14376,18 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="76"/>
-      <c r="F21" s="170" t="s">
+      <c r="F21" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="168"/>
-      <c r="O21" s="169"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="183"/>
       <c r="P21" s="78"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="4"/>
@@ -14444,20 +14422,20 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="76"/>
-      <c r="F23" s="192" t="s">
+      <c r="F23" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="194"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="175"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="195" t="s">
+      <c r="L23" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="196"/>
-      <c r="N23" s="196"/>
-      <c r="O23" s="197"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="178"/>
       <c r="P23" s="79"/>
       <c r="Q23" s="40"/>
       <c r="R23" s="4"/>
@@ -14730,12 +14708,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:24" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14767,7 +14745,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="63" t="s">
         <v>28</v>
@@ -14786,8 +14764,8 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="110"/>
       <c r="S4" s="5"/>
@@ -14870,21 +14848,21 @@
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="158" t="s">
+      <c r="F8" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="30"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="159" t="s">
+      <c r="N8" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="158"/>
-      <c r="P8" s="160"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="168"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="4"/>
       <c r="S8" s="10"/>
@@ -15221,11 +15199,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="145" t="s">
+      <c r="N17" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="10"/>
@@ -15708,12 +15686,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15740,7 +15718,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="114" t="s">
         <v>28</v>
@@ -15782,13 +15760,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="112"/>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
@@ -15810,7 +15788,7 @@
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
       <c r="J7" s="127" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L7" s="90" t="s">
         <v>95</v>
@@ -15877,11 +15855,11 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
       <c r="G11" s="16"/>
       <c r="H11" s="117" t="s">
         <v>82</v>
@@ -15918,7 +15896,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -16063,10 +16041,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16098,7 +16076,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="111" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="114" t="s">
         <v>28</v>
@@ -16148,15 +16126,15 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
       <c r="I6" s="112"/>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
@@ -16182,11 +16160,11 @@
       <c r="G7" s="110"/>
       <c r="H7" s="110"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
       <c r="O7" s="110"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -16222,18 +16200,18 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="76"/>
-      <c r="F9" s="167" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
+      <c r="F9" s="184" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
       <c r="P9" s="77"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -16269,7 +16247,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="76"/>
       <c r="F11" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -16314,18 +16292,18 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="156" t="s">
+      <c r="F13" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
       <c r="P13" s="79"/>
       <c r="Q13" s="110"/>
       <c r="R13" s="4"/>
@@ -16360,20 +16338,20 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="76"/>
-      <c r="F15" s="192" t="s">
+      <c r="F15" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="194"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="175"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="195" t="s">
+      <c r="L15" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="197"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="178"/>
       <c r="P15" s="79"/>
       <c r="Q15" s="110"/>
       <c r="R15" s="4"/>
@@ -16643,10 +16621,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16677,7 +16655,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="114" t="s">
         <v>28</v>
@@ -16696,8 +16674,8 @@
       </c>
       <c r="M4" s="99"/>
       <c r="N4" s="99"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
       <c r="S4" s="10"/>
@@ -16727,14 +16705,14 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
       <c r="L6" s="101"/>
@@ -16759,9 +16737,9 @@
       <c r="H7" s="99"/>
       <c r="I7" s="99"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
       <c r="N7" s="99"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -16798,14 +16776,14 @@
       <c r="E9" s="76"/>
       <c r="F9" s="64"/>
       <c r="G9" s="64"/>
-      <c r="H9" s="167" t="s">
+      <c r="H9" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
       <c r="N9" s="99"/>
       <c r="O9" s="77"/>
       <c r="P9" s="4"/>
@@ -16851,7 +16829,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O11" s="77"/>
       <c r="P11" s="4"/>
@@ -16886,15 +16864,15 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="186" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="186"/>
+      <c r="F13" s="192" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="192"/>
       <c r="M13" s="16"/>
       <c r="N13" s="111">
         <v>1</v>
@@ -16955,17 +16933,17 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="170" t="s">
+      <c r="F16" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
-      <c r="M16" s="168"/>
-      <c r="N16" s="169"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="183"/>
       <c r="O16" s="79"/>
       <c r="P16" s="99"/>
       <c r="Q16" s="4"/>
@@ -17043,17 +17021,17 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="170" t="s">
+      <c r="F20" s="181" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="168"/>
-      <c r="N20" s="169"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="182"/>
+      <c r="L20" s="182"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="183"/>
       <c r="O20" s="80"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="99"/>
@@ -17131,17 +17109,17 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="76"/>
-      <c r="F24" s="170" t="s">
+      <c r="F24" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="169"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="183"/>
       <c r="O24" s="80"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="99"/>
@@ -17213,16 +17191,16 @@
       <c r="D28" s="4"/>
       <c r="E28" s="76"/>
       <c r="F28" s="100"/>
-      <c r="G28" s="176" t="s">
+      <c r="G28" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
       <c r="O28" s="78"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="4"/>
@@ -17257,16 +17235,16 @@
       <c r="D30" s="4"/>
       <c r="E30" s="76"/>
       <c r="F30" s="100"/>
-      <c r="G30" s="176" t="s">
+      <c r="G30" s="191" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="153"/>
       <c r="O30" s="78"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="4"/>
@@ -17305,13 +17283,13 @@
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
-      <c r="J32" s="164" t="s">
+      <c r="J32" s="171" t="s">
         <v>117</v>
       </c>
-      <c r="K32" s="164"/>
+      <c r="K32" s="171"/>
       <c r="L32" s="16"/>
       <c r="M32" s="99"/>
-      <c r="N32" s="185" t="s">
+      <c r="N32" s="141" t="s">
         <v>56</v>
       </c>
       <c r="O32" s="78"/>
@@ -17353,10 +17331,10 @@
       <c r="H34" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="J34" s="156" t="s">
+      <c r="J34" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="K34" s="156"/>
+      <c r="K34" s="164"/>
       <c r="L34" s="16"/>
       <c r="M34" s="134" t="s">
         <v>135</v>
@@ -17382,10 +17360,10 @@
       <c r="H35" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="J35" s="156" t="s">
+      <c r="J35" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="156"/>
+      <c r="K35" s="164"/>
       <c r="L35" s="16"/>
       <c r="M35" s="134" t="s">
         <v>135</v>
@@ -17411,10 +17389,10 @@
       <c r="H36" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="J36" s="156" t="s">
+      <c r="J36" s="164" t="s">
         <v>148</v>
       </c>
-      <c r="K36" s="156"/>
+      <c r="K36" s="164"/>
       <c r="L36" s="16"/>
       <c r="M36" s="134" t="s">
         <v>135</v>
@@ -17440,10 +17418,10 @@
       <c r="H37" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="J37" s="156" t="s">
+      <c r="J37" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="K37" s="156"/>
+      <c r="K37" s="164"/>
       <c r="L37" s="16"/>
       <c r="M37" s="134" t="s">
         <v>135</v>
@@ -17544,19 +17522,19 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="76"/>
-      <c r="F43" s="192" t="s">
+      <c r="F43" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="193"/>
-      <c r="H43" s="193"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="193"/>
-      <c r="K43" s="194"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="174"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="174"/>
+      <c r="K43" s="175"/>
       <c r="L43" s="16"/>
-      <c r="M43" s="196" t="s">
+      <c r="M43" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="N43" s="197"/>
+      <c r="N43" s="178"/>
       <c r="O43" s="79"/>
       <c r="P43" s="99"/>
       <c r="Q43" s="4"/>
@@ -17766,11 +17744,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F16:N16"/>
     <mergeCell ref="F20:N20"/>
     <mergeCell ref="F43:K43"/>
     <mergeCell ref="M43:N43"/>
@@ -17782,8 +17757,11 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="G30:N30"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F16:N16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F43:K43" location="'Ver Casos de Prueba'!A1" display="Crear caso de prueba"/>
@@ -17828,12 +17806,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17862,7 +17840,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="114" t="s">
         <v>28</v>
@@ -17908,13 +17886,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -17982,16 +17960,16 @@
       </c>
       <c r="G9" s="16"/>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="145" t="s">
+      <c r="J9" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
       <c r="O9" s="4"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -18226,12 +18204,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18270,8 +18248,8 @@
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="40"/>
       <c r="S4" s="5"/>
@@ -18327,9 +18305,9 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -18361,9 +18339,9 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="10"/>
@@ -18439,15 +18417,15 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -18553,19 +18531,19 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="10"/>
@@ -18663,22 +18641,22 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="150" t="s">
+      <c r="D22" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="152"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="160"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="150" t="s">
+      <c r="L22" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="152"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="160"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="40"/>
       <c r="R22" s="4"/>
@@ -18851,350 +18829,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="3" max="3" width="0.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" customWidth="1"/>
-    <col min="14" max="14" width="0.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="114" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="119" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:20" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="189" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="108">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="K11" s="110"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="108">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="110"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="10"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D6:H6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J11" location="'ver Detalle Casos de prueba'!A1" display="Ver Detalle"/>
-    <hyperlink ref="J13" location="'ver Detalle Casos de prueba'!A1" display="Ver Detalle"/>
-    <hyperlink ref="J7" location="'Detalle Casos de Prueba'!A1" display="Volver"/>
-    <hyperlink ref="F4" location="'Ver Casos de Prueba'!A1" display="Casos de Prueba"/>
-    <hyperlink ref="L4" location="Inicio!A1" display="Salir"/>
-    <hyperlink ref="H4" location="'Ver Hitos'!A1" display="Hitos"/>
-    <hyperlink ref="J4" location="'Seleccion Proyecto'!A1" display="Cambiar Proyectos"/>
-    <hyperlink ref="D4" location="'Dashboard Gestor'!A1" display="Inicio"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA50"/>
-  <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F13" sqref="F13:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19222,10 +18860,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19258,7 +18896,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="114" t="s">
         <v>28</v>
@@ -19279,8 +18917,8 @@
       <c r="N4" s="99"/>
       <c r="O4" s="99"/>
       <c r="P4" s="99"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
+      <c r="Q4" s="153"/>
+      <c r="R4" s="153"/>
       <c r="S4" s="4"/>
       <c r="T4" s="5"/>
       <c r="U4" s="10"/>
@@ -19312,14 +18950,14 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
       <c r="L6" s="101"/>
@@ -19346,11 +18984,11 @@
       <c r="H7" s="99"/>
       <c r="I7" s="99"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
       <c r="P7" s="99"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -19396,9 +19034,7 @@
       <c r="J9" s="125"/>
       <c r="K9" s="125"/>
       <c r="L9" s="125"/>
-      <c r="M9" s="190" t="s">
-        <v>155</v>
-      </c>
+      <c r="M9" s="140"/>
       <c r="N9" s="125"/>
       <c r="O9" s="125"/>
       <c r="P9" s="138" t="s">
@@ -19451,9 +19087,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="99" t="s">
-        <v>153</v>
-      </c>
+      <c r="P11" s="99"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -19489,21 +19123,19 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="174" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="174"/>
+      <c r="F13" s="193" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="193"/>
+      <c r="N13" s="193"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="54">
-        <v>2</v>
-      </c>
+      <c r="P13" s="54"/>
       <c r="Q13" s="79"/>
       <c r="R13" s="99"/>
       <c r="S13" s="4"/>
@@ -19564,19 +19196,19 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="175" t="s">
+      <c r="F16" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="175"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="175"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="194"/>
       <c r="Q16" s="79"/>
       <c r="R16" s="99"/>
       <c r="S16" s="4"/>
@@ -19660,19 +19292,19 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="175" t="s">
+      <c r="F20" s="194" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="175"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="194"/>
       <c r="Q20" s="80"/>
       <c r="R20" s="15"/>
       <c r="S20" s="99"/>
@@ -19756,19 +19388,19 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="76"/>
-      <c r="F24" s="175" t="s">
+      <c r="F24" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="194"/>
       <c r="Q24" s="80"/>
       <c r="R24" s="15"/>
       <c r="S24" s="99"/>
@@ -19842,18 +19474,18 @@
       <c r="D28" s="4"/>
       <c r="E28" s="76"/>
       <c r="F28" s="105"/>
-      <c r="G28" s="176" t="s">
+      <c r="G28" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="153"/>
       <c r="Q28" s="78"/>
       <c r="R28" s="16"/>
       <c r="S28" s="4"/>
@@ -19890,18 +19522,18 @@
       <c r="D30" s="4"/>
       <c r="E30" s="76"/>
       <c r="F30" s="105"/>
-      <c r="G30" s="176" t="s">
+      <c r="G30" s="191" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="145"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="153"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="16"/>
       <c r="S30" s="4"/>
@@ -19938,7 +19570,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="76"/>
       <c r="F32" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" t="s">
@@ -19948,10 +19580,10 @@
         <v>117</v>
       </c>
       <c r="K32" s="16"/>
-      <c r="L32" s="145" t="s">
+      <c r="L32" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="M32" s="145"/>
+      <c r="M32" s="153"/>
       <c r="N32" s="99"/>
       <c r="O32" s="99"/>
       <c r="P32" s="54"/>
@@ -19993,18 +19625,18 @@
       <c r="F34" s="99">
         <v>1</v>
       </c>
-      <c r="H34" s="145" t="s">
+      <c r="H34" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145" t="s">
+      <c r="I34" s="153"/>
+      <c r="J34" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="K34" s="145"/>
-      <c r="L34" s="145" t="s">
+      <c r="K34" s="153"/>
+      <c r="L34" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="M34" s="145"/>
+      <c r="M34" s="153"/>
       <c r="N34" s="99"/>
       <c r="O34" s="54"/>
       <c r="P34" s="133" t="s">
@@ -20025,18 +19657,18 @@
       <c r="F35" s="99">
         <v>2</v>
       </c>
-      <c r="H35" s="145" t="s">
+      <c r="H35" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145" t="s">
+      <c r="I35" s="153"/>
+      <c r="J35" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145" t="s">
+      <c r="K35" s="153"/>
+      <c r="L35" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="M35" s="145"/>
+      <c r="M35" s="153"/>
       <c r="N35" s="99"/>
       <c r="O35" s="54"/>
       <c r="P35" s="134" t="s">
@@ -20057,18 +19689,18 @@
       <c r="F36" s="99">
         <v>3</v>
       </c>
-      <c r="H36" s="145" t="s">
+      <c r="H36" s="153" t="s">
         <v>137</v>
       </c>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145" t="s">
+      <c r="I36" s="153"/>
+      <c r="J36" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145" t="s">
+      <c r="K36" s="153"/>
+      <c r="L36" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="M36" s="145"/>
+      <c r="M36" s="153"/>
       <c r="N36" s="99"/>
       <c r="O36" s="54"/>
       <c r="P36" s="134" t="s">
@@ -20089,18 +19721,18 @@
       <c r="F37" s="99">
         <v>4</v>
       </c>
-      <c r="H37" s="145" t="s">
+      <c r="H37" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145" t="s">
+      <c r="I37" s="153"/>
+      <c r="J37" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="K37" s="145"/>
-      <c r="L37" s="145" t="s">
+      <c r="K37" s="153"/>
+      <c r="L37" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="M37" s="145"/>
+      <c r="M37" s="153"/>
       <c r="N37" s="99"/>
       <c r="O37" s="54"/>
       <c r="P37" s="134" t="s">
@@ -20157,19 +19789,19 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="171" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="172"/>
-      <c r="L41" s="172"/>
-      <c r="M41" s="172"/>
-      <c r="N41" s="172"/>
-      <c r="O41" s="172"/>
-      <c r="P41" s="173"/>
+      <c r="F41" s="195" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="196"/>
+      <c r="M41" s="196"/>
+      <c r="N41" s="196"/>
+      <c r="O41" s="196"/>
+      <c r="P41" s="197"/>
       <c r="Q41" s="78"/>
       <c r="R41" s="16"/>
       <c r="S41" s="4"/>
@@ -20397,6 +20029,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F41:P41"/>
+    <mergeCell ref="G30:P30"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F16:P16"/>
+    <mergeCell ref="F20:P20"/>
+    <mergeCell ref="F24:P24"/>
+    <mergeCell ref="G28:P28"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="H35:I35"/>
@@ -20410,20 +20053,8 @@
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="J37:K37"/>
-    <mergeCell ref="G30:P30"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F16:P16"/>
-    <mergeCell ref="F20:P20"/>
-    <mergeCell ref="F24:P24"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="F41:P41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M9" location="'Ver Historial Casos de Prueba'!A1" display="Historial"/>
     <hyperlink ref="F4" location="'Ver Casos de Prueba'!A1" display="Casos de Prueba"/>
     <hyperlink ref="L4" location="Inicio!A1" display="Salir"/>
     <hyperlink ref="H4" location="'Ver Hitos'!A1" display="Hitos"/>
@@ -20435,7 +20066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
@@ -20465,12 +20096,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:18" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20500,7 +20131,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="119" t="s">
         <v>130</v>
@@ -20565,19 +20196,19 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="205"/>
-      <c r="I7" s="205"/>
-      <c r="J7" s="205"/>
-      <c r="K7" s="205"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="206"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="203"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="10"/>
@@ -20601,27 +20232,27 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="207" t="s">
+      <c r="D9" s="144" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="38"/>
-      <c r="F9" s="208" t="s">
+      <c r="F9" s="145" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="38"/>
-      <c r="H9" s="208" t="s">
+      <c r="H9" s="145" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="38"/>
-      <c r="J9" s="208" t="s">
+      <c r="J9" s="145" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="39"/>
-      <c r="L9" s="205" t="s">
+      <c r="L9" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="205"/>
-      <c r="N9" s="206"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="203"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="10"/>
@@ -20667,11 +20298,11 @@
         <v>101</v>
       </c>
       <c r="K11" s="39"/>
-      <c r="L11" s="179" t="s">
+      <c r="L11" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
+      <c r="M11" s="199"/>
+      <c r="N11" s="199"/>
       <c r="O11" s="31" t="s">
         <v>37</v>
       </c>
@@ -20699,11 +20330,11 @@
         <v>101</v>
       </c>
       <c r="K12" s="39"/>
-      <c r="L12" s="179" t="s">
+      <c r="L12" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="199"/>
       <c r="O12" s="32"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="10"/>
@@ -20729,11 +20360,11 @@
         <v>101</v>
       </c>
       <c r="K13" s="39"/>
-      <c r="L13" s="179" t="s">
+      <c r="L13" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="179"/>
-      <c r="N13" s="179"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="199"/>
       <c r="O13" s="32"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="10"/>
@@ -20759,11 +20390,11 @@
         <v>101</v>
       </c>
       <c r="K14" s="39"/>
-      <c r="L14" s="179" t="s">
+      <c r="L14" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="179"/>
-      <c r="N14" s="179"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="199"/>
       <c r="O14" s="32"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="10"/>
@@ -20789,11 +20420,11 @@
         <v>101</v>
       </c>
       <c r="K15" s="39"/>
-      <c r="L15" s="179" t="s">
+      <c r="L15" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="M15" s="179"/>
-      <c r="N15" s="179"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="199"/>
       <c r="O15" s="32"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="10"/>
@@ -20819,11 +20450,11 @@
         <v>101</v>
       </c>
       <c r="K16" s="39"/>
-      <c r="L16" s="179" t="s">
+      <c r="L16" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="179"/>
-      <c r="N16" s="179"/>
+      <c r="M16" s="199"/>
+      <c r="N16" s="199"/>
       <c r="O16" s="31" t="s">
         <v>5</v>
       </c>
@@ -20843,9 +20474,9 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="177"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="200"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="10"/>
@@ -20855,19 +20486,19 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="204" t="s">
+      <c r="D18" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="206"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="203"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="10"/>
@@ -20891,27 +20522,27 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="207" t="s">
+      <c r="D20" s="144" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="38"/>
-      <c r="F20" s="208" t="s">
+      <c r="F20" s="145" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="38"/>
-      <c r="H20" s="208" t="s">
+      <c r="H20" s="145" t="s">
         <v>43</v>
       </c>
       <c r="I20" s="38"/>
-      <c r="J20" s="208" t="s">
+      <c r="J20" s="145" t="s">
         <v>51</v>
       </c>
       <c r="K20" s="39"/>
-      <c r="L20" s="205" t="s">
+      <c r="L20" s="202" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="205"/>
-      <c r="N20" s="206"/>
+      <c r="M20" s="202"/>
+      <c r="N20" s="203"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="10"/>
@@ -20957,11 +20588,11 @@
         <v>8</v>
       </c>
       <c r="K22" s="39"/>
-      <c r="L22" s="178" t="s">
+      <c r="L22" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
+      <c r="M22" s="198"/>
+      <c r="N22" s="198"/>
       <c r="O22" s="31" t="s">
         <v>37</v>
       </c>
@@ -20991,11 +20622,11 @@
         <v>52</v>
       </c>
       <c r="K23" s="39"/>
-      <c r="L23" s="178" t="s">
+      <c r="L23" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178"/>
+      <c r="M23" s="198"/>
+      <c r="N23" s="198"/>
       <c r="O23" s="32"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="10"/>
@@ -21023,11 +20654,11 @@
         <v>53</v>
       </c>
       <c r="K24" s="39"/>
-      <c r="L24" s="178" t="s">
+      <c r="L24" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
+      <c r="M24" s="198"/>
+      <c r="N24" s="198"/>
       <c r="O24" s="32"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="10"/>
@@ -21055,11 +20686,11 @@
         <v>8</v>
       </c>
       <c r="K25" s="39"/>
-      <c r="L25" s="178" t="s">
+      <c r="L25" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
+      <c r="M25" s="198"/>
+      <c r="N25" s="198"/>
       <c r="O25" s="32"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="10"/>
@@ -21087,11 +20718,11 @@
         <v>8</v>
       </c>
       <c r="K26" s="39"/>
-      <c r="L26" s="178" t="s">
+      <c r="L26" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="178"/>
-      <c r="N26" s="178"/>
+      <c r="M26" s="198"/>
+      <c r="N26" s="198"/>
       <c r="O26" s="32"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="10"/>
@@ -21119,11 +20750,11 @@
         <v>8</v>
       </c>
       <c r="K27" s="39"/>
-      <c r="L27" s="178" t="s">
+      <c r="L27" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="178"/>
-      <c r="N27" s="178"/>
+      <c r="M27" s="198"/>
+      <c r="N27" s="198"/>
       <c r="O27" s="31" t="s">
         <v>5</v>
       </c>
@@ -21177,11 +20808,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="D18:N18"/>
     <mergeCell ref="L22:N22"/>
     <mergeCell ref="L11:N11"/>
     <mergeCell ref="L12:N12"/>
@@ -21189,12 +20821,11 @@
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="L16:N16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L11:N11" location="'Actualizar Casos de prueba'!A1" display="Actualizar"/>
@@ -21210,12 +20841,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M48" activeCellId="1" sqref="F48:K48 M48:P48"/>
+      <selection activeCell="O39" sqref="O39:P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21242,10 +20873,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21278,24 +20909,24 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="150" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="152"/>
+      <c r="G4" s="160"/>
       <c r="I4" s="114" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
       <c r="N4" s="99"/>
       <c r="O4" s="99"/>
       <c r="P4" s="99"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
+      <c r="Q4" s="153"/>
+      <c r="R4" s="153"/>
       <c r="S4" s="4"/>
       <c r="T4" s="5"/>
       <c r="U4" s="10"/>
@@ -21327,14 +20958,14 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
       <c r="J6" s="101"/>
       <c r="K6" s="101"/>
       <c r="L6" s="101"/>
@@ -21361,11 +20992,11 @@
       <c r="H7" s="99"/>
       <c r="I7" s="99"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
       <c r="P7" s="99"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -21405,15 +21036,15 @@
       <c r="F9" s="64"/>
       <c r="G9" s="64"/>
       <c r="H9" s="99"/>
-      <c r="I9" s="167" t="s">
+      <c r="I9" s="184" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
       <c r="P9" s="99"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="4"/>
@@ -21498,19 +21129,19 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="180" t="s">
+      <c r="F13" s="205" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="180"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="205"/>
+      <c r="I13" s="205"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="205"/>
+      <c r="L13" s="205"/>
+      <c r="M13" s="205"/>
+      <c r="N13" s="205"/>
+      <c r="O13" s="205"/>
+      <c r="P13" s="205"/>
       <c r="Q13" s="79"/>
       <c r="R13" s="99"/>
       <c r="S13" s="4"/>
@@ -21571,19 +21202,19 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="181" t="s">
+      <c r="F16" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="183"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="207"/>
+      <c r="L16" s="207"/>
+      <c r="M16" s="207"/>
+      <c r="N16" s="207"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="208"/>
       <c r="Q16" s="79"/>
       <c r="R16" s="99"/>
       <c r="S16" s="4"/>
@@ -21667,19 +21298,19 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="181" t="s">
+      <c r="F20" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="183"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="207"/>
+      <c r="L20" s="207"/>
+      <c r="M20" s="207"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="208"/>
       <c r="Q20" s="80"/>
       <c r="R20" s="15"/>
       <c r="S20" s="99"/>
@@ -21763,19 +21394,19 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="76"/>
-      <c r="F24" s="181" t="s">
+      <c r="F24" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="183"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="207"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="207"/>
+      <c r="P24" s="208"/>
       <c r="Q24" s="80"/>
       <c r="R24" s="15"/>
       <c r="S24" s="99"/>
@@ -21851,18 +21482,18 @@
       <c r="D28" s="4"/>
       <c r="E28" s="76"/>
       <c r="F28" s="100"/>
-      <c r="G28" s="176" t="s">
+      <c r="G28" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="153"/>
       <c r="Q28" s="78"/>
       <c r="R28" s="16"/>
       <c r="S28" s="4"/>
@@ -21899,18 +21530,18 @@
       <c r="D30" s="4"/>
       <c r="E30" s="76"/>
       <c r="F30" s="100"/>
-      <c r="G30" s="176" t="s">
+      <c r="G30" s="191" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="145"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="153"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="16"/>
       <c r="S30" s="4"/>
@@ -21955,11 +21586,11 @@
         <v>117</v>
       </c>
       <c r="J32" s="99"/>
-      <c r="K32" s="145" t="s">
+      <c r="K32" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
       <c r="N32" s="99"/>
       <c r="O32" s="99"/>
       <c r="P32" s="100"/>
@@ -22009,9 +21640,9 @@
         <v>147</v>
       </c>
       <c r="J34" s="99"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="164"/>
+      <c r="M34" s="164"/>
       <c r="N34" s="99"/>
       <c r="O34" s="134" t="s">
         <v>135</v>
@@ -22042,9 +21673,9 @@
         <v>147</v>
       </c>
       <c r="J35" s="99"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="164"/>
       <c r="N35" s="99"/>
       <c r="O35" s="134" t="s">
         <v>135</v>
@@ -22075,9 +21706,9 @@
         <v>148</v>
       </c>
       <c r="J36" s="99"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="156"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="164"/>
+      <c r="M36" s="164"/>
       <c r="N36" s="99"/>
       <c r="O36" s="134" t="s">
         <v>135</v>
@@ -22108,9 +21739,9 @@
         <v>147</v>
       </c>
       <c r="J37" s="99"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="164"/>
+      <c r="M37" s="164"/>
       <c r="N37" s="99"/>
       <c r="O37" s="134" t="s">
         <v>135</v>
@@ -22142,10 +21773,8 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="76"/>
-      <c r="O39" s="187" t="s">
-        <v>152</v>
-      </c>
-      <c r="P39" s="188"/>
+      <c r="O39" s="194"/>
+      <c r="P39" s="194"/>
       <c r="Q39" s="78"/>
       <c r="R39" s="16"/>
       <c r="S39" s="4"/>
@@ -22196,7 +21825,7 @@
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
       <c r="O42" s="87"/>
-      <c r="P42" s="191" t="s">
+      <c r="P42" s="143" t="s">
         <v>56</v>
       </c>
       <c r="Q42" s="78"/>
@@ -22296,21 +21925,21 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="192" t="s">
+      <c r="F48" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="193"/>
-      <c r="H48" s="193"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="193"/>
-      <c r="K48" s="194"/>
+      <c r="G48" s="174"/>
+      <c r="H48" s="174"/>
+      <c r="I48" s="174"/>
+      <c r="J48" s="174"/>
+      <c r="K48" s="175"/>
       <c r="L48" s="16"/>
-      <c r="M48" s="195" t="s">
+      <c r="M48" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="N48" s="196"/>
-      <c r="O48" s="196"/>
-      <c r="P48" s="197"/>
+      <c r="N48" s="177"/>
+      <c r="O48" s="177"/>
+      <c r="P48" s="178"/>
       <c r="Q48" s="79"/>
       <c r="R48" s="99"/>
       <c r="S48" s="4"/>
@@ -22538,18 +22167,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="F13:P13"/>
-    <mergeCell ref="F16:P16"/>
-    <mergeCell ref="F20:P20"/>
-    <mergeCell ref="F24:P24"/>
-    <mergeCell ref="G28:P28"/>
     <mergeCell ref="F48:K48"/>
     <mergeCell ref="M48:P48"/>
     <mergeCell ref="O39:P39"/>
@@ -22559,6 +22176,18 @@
     <mergeCell ref="K35:M35"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="K37:M37"/>
+    <mergeCell ref="F13:P13"/>
+    <mergeCell ref="F16:P16"/>
+    <mergeCell ref="F20:P20"/>
+    <mergeCell ref="F24:P24"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="K7:O7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F48:K48" location="'Ver Casos de Prueba'!A1" display="Crear caso de prueba"/>
@@ -22572,7 +22201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV35"/>
   <sheetViews>
@@ -22599,12 +22228,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:44" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22636,20 +22265,20 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="150" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="151"/>
-      <c r="H4" s="152"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="160"/>
       <c r="J4" s="63" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="40"/>
       <c r="O4" s="40"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5"/>
       <c r="T4" s="10"/>
@@ -22680,13 +22309,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -22719,8 +22348,8 @@
       <c r="K7" s="71"/>
       <c r="L7" s="71"/>
       <c r="M7" s="71"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="209"/>
       <c r="Q7" s="71"/>
       <c r="R7" s="71"/>
       <c r="S7" s="10"/>
@@ -22816,11 +22445,11 @@
         <v>85</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="178" t="s">
+      <c r="J11" s="198" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="198"/>
       <c r="M11" s="40"/>
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
@@ -22849,11 +22478,11 @@
         <v>Activo</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="178" t="s">
+      <c r="J12" s="198" t="s">
         <v>150</v>
       </c>
-      <c r="K12" s="178"/>
-      <c r="L12" s="178"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
       <c r="M12" s="40"/>
       <c r="N12" s="40"/>
       <c r="O12" s="40"/>
@@ -22913,22 +22542,22 @@
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="158" t="s">
+      <c r="F15" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="30"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="159" t="s">
+      <c r="N15" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="O15" s="158"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="160"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="168"/>
       <c r="R15" s="9"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -23278,12 +22907,12 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="145" t="s">
+      <c r="N24" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="145"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
       <c r="R24" s="4"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
@@ -23755,7 +23384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
@@ -23781,12 +23410,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23812,7 +23441,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="119" t="s">
         <v>130</v>
@@ -23846,13 +23475,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="112"/>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
@@ -23909,7 +23538,7 @@
       </c>
       <c r="G9" s="16"/>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="16" t="s">
@@ -24087,12 +23716,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24120,12 +23749,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="A1" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24158,7 +23787,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="119" t="s">
         <v>130</v>
@@ -24175,8 +23804,8 @@
       <c r="N4" s="110"/>
       <c r="O4" s="110"/>
       <c r="P4" s="110"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
+      <c r="Q4" s="153"/>
+      <c r="R4" s="153"/>
       <c r="S4" s="4"/>
       <c r="T4" s="5"/>
       <c r="U4" s="10"/>
@@ -24208,14 +23837,14 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
       <c r="L6" s="112"/>
@@ -24242,11 +23871,11 @@
       <c r="H7" s="110"/>
       <c r="I7" s="110"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
       <c r="P7" s="110"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -24292,12 +23921,10 @@
       <c r="J9" s="125"/>
       <c r="K9" s="125"/>
       <c r="L9" s="125"/>
-      <c r="M9" s="190" t="s">
-        <v>155</v>
-      </c>
+      <c r="M9" s="140"/>
       <c r="N9" s="125"/>
       <c r="O9" s="125"/>
-      <c r="P9" s="189" t="s">
+      <c r="P9" s="142" t="s">
         <v>95</v>
       </c>
       <c r="Q9" s="77"/>
@@ -24348,7 +23975,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="77"/>
       <c r="R11" s="4"/>
@@ -24385,17 +24012,17 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="76"/>
-      <c r="F13" s="174" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="174"/>
+      <c r="F13" s="193" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="193"/>
+      <c r="N13" s="193"/>
       <c r="O13" s="16"/>
       <c r="P13" s="139">
         <v>2</v>
@@ -24460,19 +24087,19 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="76"/>
-      <c r="F16" s="175" t="s">
+      <c r="F16" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="175"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="175"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="194"/>
       <c r="Q16" s="79"/>
       <c r="R16" s="110"/>
       <c r="S16" s="4"/>
@@ -24556,19 +24183,19 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="76"/>
-      <c r="F20" s="175" t="s">
+      <c r="F20" s="194" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="175"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="194"/>
       <c r="Q20" s="80"/>
       <c r="R20" s="15"/>
       <c r="S20" s="110"/>
@@ -24652,19 +24279,19 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="76"/>
-      <c r="F24" s="175" t="s">
+      <c r="F24" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="194"/>
       <c r="Q24" s="80"/>
       <c r="R24" s="15"/>
       <c r="S24" s="110"/>
@@ -24738,18 +24365,18 @@
       <c r="D28" s="4"/>
       <c r="E28" s="76"/>
       <c r="F28" s="115"/>
-      <c r="G28" s="176" t="s">
+      <c r="G28" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="153"/>
       <c r="Q28" s="78"/>
       <c r="R28" s="16"/>
       <c r="S28" s="4"/>
@@ -24786,18 +24413,18 @@
       <c r="D30" s="4"/>
       <c r="E30" s="76"/>
       <c r="F30" s="115"/>
-      <c r="G30" s="176" t="s">
+      <c r="G30" s="191" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="145"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+      <c r="N30" s="153"/>
+      <c r="O30" s="153"/>
+      <c r="P30" s="153"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="16"/>
       <c r="S30" s="4"/>
@@ -24834,7 +24461,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="76"/>
       <c r="F32" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" t="s">
@@ -24844,10 +24471,10 @@
         <v>117</v>
       </c>
       <c r="K32" s="16"/>
-      <c r="L32" s="145" t="s">
+      <c r="L32" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="M32" s="145"/>
+      <c r="M32" s="153"/>
       <c r="N32" s="110"/>
       <c r="O32" s="110"/>
       <c r="P32" s="139"/>
@@ -24889,18 +24516,18 @@
       <c r="F34" s="110">
         <v>1</v>
       </c>
-      <c r="H34" s="145" t="s">
+      <c r="H34" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145" t="s">
+      <c r="I34" s="153"/>
+      <c r="J34" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="K34" s="145"/>
-      <c r="L34" s="145" t="s">
+      <c r="K34" s="153"/>
+      <c r="L34" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="M34" s="145"/>
+      <c r="M34" s="153"/>
       <c r="N34" s="110"/>
       <c r="O34" s="139"/>
       <c r="P34" s="133" t="s">
@@ -24921,18 +24548,18 @@
       <c r="F35" s="110">
         <v>2</v>
       </c>
-      <c r="H35" s="145" t="s">
+      <c r="H35" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145" t="s">
+      <c r="I35" s="153"/>
+      <c r="J35" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145" t="s">
+      <c r="K35" s="153"/>
+      <c r="L35" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="M35" s="145"/>
+      <c r="M35" s="153"/>
       <c r="N35" s="110"/>
       <c r="O35" s="139"/>
       <c r="P35" s="134" t="s">
@@ -24953,18 +24580,18 @@
       <c r="F36" s="110">
         <v>3</v>
       </c>
-      <c r="H36" s="145" t="s">
+      <c r="H36" s="153" t="s">
         <v>137</v>
       </c>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145" t="s">
+      <c r="I36" s="153"/>
+      <c r="J36" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145" t="s">
+      <c r="K36" s="153"/>
+      <c r="L36" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="M36" s="145"/>
+      <c r="M36" s="153"/>
       <c r="N36" s="110"/>
       <c r="O36" s="139"/>
       <c r="P36" s="134" t="s">
@@ -24985,18 +24612,18 @@
       <c r="F37" s="110">
         <v>4</v>
       </c>
-      <c r="H37" s="145" t="s">
+      <c r="H37" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145" t="s">
+      <c r="I37" s="153"/>
+      <c r="J37" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="K37" s="145"/>
-      <c r="L37" s="145" t="s">
+      <c r="K37" s="153"/>
+      <c r="L37" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="M37" s="145"/>
+      <c r="M37" s="153"/>
       <c r="N37" s="110"/>
       <c r="O37" s="139"/>
       <c r="P37" s="134" t="s">
@@ -25053,19 +24680,19 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="76"/>
-      <c r="F41" s="171" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="172"/>
-      <c r="L41" s="172"/>
-      <c r="M41" s="172"/>
-      <c r="N41" s="172"/>
-      <c r="O41" s="172"/>
-      <c r="P41" s="173"/>
+      <c r="F41" s="195" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="196"/>
+      <c r="M41" s="196"/>
+      <c r="N41" s="196"/>
+      <c r="O41" s="196"/>
+      <c r="P41" s="197"/>
       <c r="Q41" s="78"/>
       <c r="R41" s="16"/>
       <c r="S41" s="4"/>
@@ -25293,6 +24920,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="F13:N13"/>
+    <mergeCell ref="F16:P16"/>
+    <mergeCell ref="F20:P20"/>
+    <mergeCell ref="F24:P24"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="G30:P30"/>
+    <mergeCell ref="L32:M32"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="L37:M37"/>
@@ -25303,23 +24944,8 @@
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="F20:P20"/>
-    <mergeCell ref="F24:P24"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="G30:P30"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="F13:N13"/>
-    <mergeCell ref="F16:P16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M9" location="'Ver Historial Casos de Prueba'!A1" display="Historial"/>
     <hyperlink ref="P9" location="'Ver Casos de Prueba (Inv)'!A1" display="Volver"/>
     <hyperlink ref="H4" location="Inicio!A1" display="Salir"/>
     <hyperlink ref="F4" location="'Seleccion Proyecto Inv'!A1" display="Seleccionar Proyecto"/>
@@ -25356,12 +24982,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25400,8 +25026,8 @@
       <c r="L4" s="110"/>
       <c r="M4" s="110"/>
       <c r="N4" s="110"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="110"/>
       <c r="S4" s="5"/>
@@ -25457,9 +25083,9 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -25491,9 +25117,9 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="10"/>
@@ -25569,15 +25195,15 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -25683,19 +25309,19 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="10"/>
@@ -25793,22 +25419,22 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="150" t="s">
+      <c r="D22" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="152"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="160"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="150" t="s">
+      <c r="L22" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="152"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="160"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="110"/>
       <c r="R22" s="4"/>
@@ -26005,12 +25631,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26049,8 +25675,8 @@
       <c r="L4" s="110"/>
       <c r="M4" s="110"/>
       <c r="N4" s="110"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="110"/>
       <c r="S4" s="5"/>
@@ -26106,9 +25732,9 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -26140,9 +25766,9 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="10"/>
@@ -26218,15 +25844,15 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -26332,19 +25958,19 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="10"/>
@@ -26442,22 +26068,22 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="150" t="s">
+      <c r="D22" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="152"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="160"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="150" t="s">
+      <c r="L22" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="152"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="160"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="110"/>
       <c r="R22" s="4"/>
@@ -26654,12 +26280,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26698,8 +26324,8 @@
       <c r="L4" s="110"/>
       <c r="M4" s="110"/>
       <c r="N4" s="110"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="110"/>
       <c r="S4" s="5"/>
@@ -26755,9 +26381,9 @@
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -26789,9 +26415,9 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
+      <c r="N8" s="153"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="10"/>
@@ -26867,15 +26493,15 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -26981,19 +26607,19 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="10"/>
@@ -27091,22 +26717,22 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="150" t="s">
+      <c r="D22" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="152"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="160"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="150" t="s">
+      <c r="L22" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="152"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="160"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="110"/>
       <c r="R22" s="4"/>
@@ -27304,12 +26930,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27352,8 +26978,8 @@
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="40"/>
       <c r="S4" s="5"/>
@@ -27387,13 +27013,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
@@ -27437,19 +27063,19 @@
       <c r="C8" s="4"/>
       <c r="D8" s="52"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="155" t="s">
+      <c r="F8" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="10"/>
@@ -27507,15 +27133,15 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="156" t="s">
+      <c r="H11" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
       <c r="O11" s="94" t="s">
         <v>123</v>
       </c>
@@ -27529,13 +27155,13 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -27639,19 +27265,19 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="10"/>
@@ -27958,12 +27584,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28006,8 +27632,8 @@
       <c r="L4" s="110"/>
       <c r="M4" s="110"/>
       <c r="N4" s="110"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="110"/>
       <c r="S4" s="5"/>
@@ -28041,13 +27667,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="112"/>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
@@ -28091,19 +27717,19 @@
       <c r="C8" s="4"/>
       <c r="D8" s="52"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="155" t="s">
+      <c r="F8" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="10"/>
@@ -28161,15 +27787,15 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="156" t="s">
+      <c r="H11" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
       <c r="O11" s="94" t="s">
         <v>123</v>
       </c>
@@ -28183,13 +27809,13 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -28293,19 +27919,19 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="10"/>
@@ -28612,12 +28238,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28660,8 +28286,8 @@
       <c r="L4" s="110"/>
       <c r="M4" s="110"/>
       <c r="N4" s="110"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="110"/>
       <c r="S4" s="5"/>
@@ -28695,13 +28321,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="112"/>
       <c r="J6" s="112"/>
       <c r="K6" s="112"/>
@@ -28745,19 +28371,19 @@
       <c r="C8" s="4"/>
       <c r="D8" s="52"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="155" t="s">
+      <c r="F8" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="10"/>
@@ -28815,15 +28441,15 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="156" t="s">
+      <c r="H11" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
       <c r="O11" s="94" t="s">
         <v>123</v>
       </c>
@@ -28837,13 +28463,13 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -28947,19 +28573,19 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="10"/>
